--- a/pred_ohlcv/54_21/2020-01-16 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BCH ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>948.8634585299994</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>242.6288030499994</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-301.8697969500006</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1258.898096950001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2967.125658490001</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-3006.91367038</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3067.23557038</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3016.24877494</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3045.02587494</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2914.94077494</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2954.96137494</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2912.92646742</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2739.72626742</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2648.35206742</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-2619.15926742</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-2649.34557752</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-2649.34557752</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-2682.624177520001</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-2692.98047752</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-2630.06697752</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-2596.784477520001</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-2606.091577520001</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-2603.881677520001</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2598.931677520001</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2567.488277520001</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2477.624777520002</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2459.441977520002</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2457.120877520002</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2475.785277520002</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2410.211277520002</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2368.825277520002</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2356.852877520002</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2295.289677520002</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2320.866593570001</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-2336.533893570002</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2326.072494410002</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2357.378994410002</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2285.792094410002</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2281.242994410002</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2279.238994410002</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2278.873094410002</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2290.219134280002</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2289.457534280002</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2289.457534280002</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2173.910234280002</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2141.242734280002</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2104.809534280002</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>4309.559785549997</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>4557.873621149997</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3938.118250349997</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3365.969152179997</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>2799.140687159997</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>3057.290669789998</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3179.309048229998</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3044.903291819998</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>2895.734191819998</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>2075.369522649997</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>2433.636822649997</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>2288.090492199997</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>5036.571927929996</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>4503.819227109996</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>4781.108527299996</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>4365.012162709996</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>4574.170255319996</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>4753.897476479996</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>4647.368610989996</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>4343.296566079996</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>3925.017276849997</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>4403.498310969997</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>4260.654790339997</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>4029.621852269996</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>4284.088305469997</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>4164.790305469997</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>2992.965909719996</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>2934.777009719996</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BCH ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>948.8634585299994</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>242.6288030499994</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-301.8697969500006</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1258.898096950001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3069.53847494</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3051.53847494</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2954.03917494</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2862.83867494</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2862.83867494</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2881.41247494</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2871.88997494</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2912.92646742</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2912.92646742</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2950.66196742</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2586.680877520001</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-2586.680877520001</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2561.162177520001</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2567.488277520001</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2567.488277520001</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2520.548377520001</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2515.050377520001</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2536.379377520002</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2556.981277520002</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2509.407077520002</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2513.871577520002</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2538.124077520002</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2477.624777520002</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2477.624777520002</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2459.441977520002</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2457.120877520002</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2475.785277520002</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2410.211277520002</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2368.825277520002</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2356.852877520002</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2295.289677520002</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2320.866593570001</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-2336.533893570002</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2326.072494410002</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2357.378994410002</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2285.792094410002</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2281.242994410002</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2279.238994410002</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2278.873094410002</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2290.219134280002</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2289.457534280002</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2289.457534280002</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2173.910234280002</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2141.242734280002</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2104.809534280002</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>4309.559785549997</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>4557.873621149997</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3938.118250349997</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3365.969152179997</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>2799.140687159997</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>2075.369522649997</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>2433.636822649997</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>2288.090492199997</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>3994.706796649997</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>4470.274958419996</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>5208.381598089996</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>4499.122342109997</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>5036.571927929996</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>4503.819227109996</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>4781.108527299996</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>4365.012162709996</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>4574.170255319996</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>4753.897476479996</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>4647.368610989996</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>4343.296566079996</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>3925.017276849997</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>4403.498310969997</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>4260.654790339997</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>4045.030909459997</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>4204.931409459997</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>4487.342516309996</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>4219.345116309996</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>4219.345116309996</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>4043.356959329996</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>3669.953553189996</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>3987.938240579997</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>4193.331607099996</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>4338.436200269996</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>4214.464352269996</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>4029.621852269996</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>4177.674705469996</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>4582.041805469997</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>4775.134005469997</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>4284.088305469997</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>4164.790305469997</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>4164.790305469997</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>3963.091205469997</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>3630.945105469998</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>3290.271395949997</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>2992.965909719996</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>2934.777009719996</v>
       </c>
       <c r="H1078">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
